--- a/用户代表打分表/SRA2022-G16-需求优先级-QFD版本.xlsx
+++ b/用户代表打分表/SRA2022-G16-需求优先级-QFD版本.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Documents\GitHub\G016ZUCC-SRA2022\用户代表打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AC096D-5464-4D06-B27C-BF2C86672E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB85EDD-74B4-409D-BEAC-AD3D154461B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="68">
   <si>
     <t>软工学院——软件工程学习知识交流平台</t>
   </si>
@@ -242,6 +242,10 @@
   </si>
   <si>
     <t>优先级越高需求越重要</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级排名</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +255,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -491,7 +495,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +509,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,38 +563,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,30 +635,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -641,6 +645,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -976,402 +986,408 @@
   <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="2" spans="3:13">
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
     </row>
     <row r="3" spans="3:13">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="3:13">
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="3:13">
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
     </row>
     <row r="6" spans="3:13">
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="12" t="s">
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="12" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12" t="s">
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="2:13">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="12" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="12"/>
-      <c r="H29" s="16">
+      <c r="G29" s="8"/>
+      <c r="H29" s="9">
         <v>44692</v>
       </c>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:M19"/>
+    <mergeCell ref="C20:M22"/>
+    <mergeCell ref="C23:M25"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:M28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:M29"/>
@@ -1381,12 +1397,6 @@
     <mergeCell ref="C27:E27"/>
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:M27"/>
-    <mergeCell ref="C2:M19"/>
-    <mergeCell ref="C20:M22"/>
-    <mergeCell ref="C23:M25"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:M28"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1405,620 +1415,585 @@
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="15.6"/>
   <sheetData>
     <row r="1" spans="1:17" ht="22.8">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="44"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="27"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="23">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="42"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="44"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="36"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="44"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="44"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="38"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="46"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="39" t="s">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="40"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="29"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="39" t="s">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41" t="s">
+      <c r="E9" s="29"/>
+      <c r="F9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="41" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41" t="s">
+      <c r="L9" s="29"/>
+      <c r="M9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="40"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="39">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="28">
         <v>1</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="30">
         <v>1</v>
       </c>
-      <c r="L10" s="40"/>
-      <c r="M10" s="41" t="s">
+      <c r="L10" s="29"/>
+      <c r="M10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="40"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="29"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="39">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="40"/>
-      <c r="F11" s="41" t="s">
+      <c r="E11" s="29"/>
+      <c r="F11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="41">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="30">
         <v>2</v>
       </c>
-      <c r="L11" s="40"/>
-      <c r="M11" s="41" t="s">
+      <c r="L11" s="29"/>
+      <c r="M11" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="40"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="39">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="41">
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="30">
         <v>3</v>
       </c>
-      <c r="L12" s="40"/>
-      <c r="M12" s="41" t="s">
+      <c r="L12" s="29"/>
+      <c r="M12" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="40"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="29"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="39">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="28">
         <v>4</v>
       </c>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41" t="s">
+      <c r="E13" s="29"/>
+      <c r="F13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41">
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30">
         <v>4</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="41" t="s">
+      <c r="L13" s="29"/>
+      <c r="M13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="40"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="39">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="28">
         <v>5</v>
       </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41" t="s">
+      <c r="E14" s="29"/>
+      <c r="F14" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="41">
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30">
         <v>5</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="41" t="s">
+      <c r="L14" s="29"/>
+      <c r="M14" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="40"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="29"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="39">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="28">
         <v>6</v>
       </c>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41">
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30">
         <v>6</v>
       </c>
-      <c r="L15" s="40"/>
-      <c r="M15" s="41" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="40"/>
+      <c r="N15" s="28"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="39">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="28">
         <v>7</v>
       </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="41" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41">
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30">
         <v>7</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="41" t="s">
+      <c r="L16" s="29"/>
+      <c r="M16" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="40"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="39">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="28">
         <v>8</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41" t="s">
+      <c r="E17" s="29"/>
+      <c r="F17" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="41">
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30">
         <v>8</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41" t="s">
+      <c r="L17" s="29"/>
+      <c r="M17" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="39">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="28">
         <v>9</v>
       </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41" t="s">
+      <c r="E18" s="29"/>
+      <c r="F18" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41">
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30">
         <v>9</v>
       </c>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="40"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="23">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="31">
         <v>2</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="28"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="31"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="23">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="31">
         <v>3</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
     </row>
     <row r="23" spans="1:17" ht="15.6" customHeight="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="D2:Q2"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:Q11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:Q13"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:Q17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:Q14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:Q15"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C25"/>
     <mergeCell ref="D21:Q25"/>
@@ -2035,6 +2010,41 @@
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="M16:Q16"/>
     <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:Q17"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:Q14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:Q15"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:Q12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:Q13"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:Q10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:Q11"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="D2:Q2"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2046,14 +2056,14 @@
   <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="19.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.453125" style="50" customWidth="1"/>
     <col min="4" max="4" width="19.1796875" customWidth="1"/>
     <col min="5" max="5" width="18.453125" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
@@ -2086,189 +2096,252 @@
       <c r="A4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="50" t="s">
         <v>65</v>
       </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="50">
         <v>3.5906033601043301</v>
       </c>
+      <c r="D5" s="50">
+        <v>1.4931799923736584</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="50">
         <v>2.1696999171034492</v>
       </c>
+      <c r="D6" s="50">
+        <v>1.5519386889341065</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="19.05" customHeight="1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="50">
         <v>2.9103320961815244</v>
       </c>
+      <c r="D7" s="50">
+        <v>1.6455624733054475</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="50">
         <v>2.4196197900040533</v>
       </c>
+      <c r="D8" s="50">
+        <v>1.8018787376364298</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="50">
         <v>2.0506145433969305</v>
       </c>
+      <c r="D9" s="50">
+        <v>1.8095242586237106</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="50">
         <v>2.6017425184014957</v>
       </c>
+      <c r="D10" s="50">
+        <v>1.8126489733714375</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="50">
         <v>2.3501865370357531</v>
       </c>
+      <c r="D11" s="50">
+        <v>1.9743662798480017</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="16.05" customHeight="1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="50">
         <v>3.1268788240369023</v>
       </c>
+      <c r="D12" s="50">
+        <v>1.9756088266135696</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="50">
         <v>1.8018787376364298</v>
       </c>
+      <c r="D13" s="50">
+        <v>2.0506145433969305</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="50">
         <v>3.1489665204742083</v>
       </c>
+      <c r="D14" s="50">
+        <v>2.0688403631935395</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="50">
         <v>3.1357969416633513</v>
       </c>
+      <c r="D15" s="50">
+        <v>2.1696999171034492</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="50">
         <v>1.8126489733714375</v>
       </c>
+      <c r="D16" s="50">
+        <v>2.1719983220278936</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="50">
         <v>1.4931799923736584</v>
       </c>
+      <c r="D17" s="50">
+        <v>2.3501865370357531</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="50">
         <v>1.9743662798480017</v>
       </c>
+      <c r="D18" s="50">
+        <v>2.4196197900040533</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="50">
         <v>1.6455624733054475</v>
       </c>
+      <c r="D19" s="50">
+        <v>2.6017425184014957</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="50">
         <v>2.1719983220278936</v>
       </c>
+      <c r="D20" s="50">
+        <v>2.9103320961815244</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="50">
         <v>2.0688403631935395</v>
       </c>
+      <c r="D21" s="50">
+        <v>3.1268788240369023</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="16"/>
       <c r="C22" s="50">
         <v>1.9756088266135696</v>
       </c>
+      <c r="D22" s="50">
+        <v>3.1357969416633513</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="16"/>
       <c r="C23" s="50">
         <v>1.8095242586237106</v>
       </c>
+      <c r="D23" s="50">
+        <v>3.1489665204742083</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="50">
         <v>1.5519386889341065</v>
+      </c>
+      <c r="D24" s="50">
+        <v>3.5906033601043301</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2276,7 +2349,7 @@
       <c r="B25" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="C27" s="2"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
@@ -2284,7 +2357,7 @@
         <v>63</v>
       </c>
       <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -2292,54 +2365,54 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="16"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
     </row>
     <row r="51" ht="16.05" customHeight="1"/>
     <row r="52" ht="16.05" customHeight="1"/>
@@ -2376,46 +2449,49 @@
     <row r="83" ht="15" customHeight="1"/>
     <row r="84" ht="15" customHeight="1"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D24">
+    <sortCondition ref="D5:D24"/>
+  </sortState>
   <mergeCells count="36">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A40:B40"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="A36:B36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>